--- a/biology/Botanique/Trifolium_medium/Trifolium_medium.xlsx
+++ b/biology/Botanique/Trifolium_medium/Trifolium_medium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trifolium medium, le Trèfle flexueux, Trèfle intermédiaire ou Trèfle moyen est une espèce de plantes herbacées du genre Trifolium, de la famille des Fabaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante vivace de 20 à 45 cm; hémicryptophyte à rhizome.
 Plante à rhizome rampant, à tige flexueuse et redressée.
@@ -548,7 +562,9 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante eurasiatique (subocéanique).
 Le trèfle intermédiaire est une espèce assez commune à rare selon les régions, elle est présente de l'étage collinéen à l’étage subalpin (de 200 à 2000 m d'altitude).
@@ -582,7 +598,9 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'est pas considérée comme étant menacée en France. En 2021 elle est classée Espèce de préoccupation mineure (LC) par l'UICN.
 Toutefois localement l'espèce peut se raréfier: elle est considérée Quasi menacée (NT), proche du seuil des espèces menacées ou qui pourrait être menacée si des mesures de conservation spécifiques n'étaient pas prises, en Picardie et en Île-de-France; elle est considérée Vulnérable (VU) en Haute-Normandie; en Danger (EN) en Bretagne.
@@ -615,7 +633,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante expectorante et diurétique; fleurs astringentes et vulnéraires.
 </t>
